--- a/statistics/R/roiObjectLvl_Within-PLI_gamma_B/output.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_gamma_B/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.8787314982965375E-4</v>
+        <v>-1.722170540104928E-4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0012442322719002363</v>
+        <v>0.001140546249241925</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00482945951554159</v>
+        <v>-0.004427004555913161</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008917031898398375</v>
+        <v>0.008173945906865127</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0026928277898774222</v>
+        <v>0.0024684254740543754</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004735935009188563</v>
+        <v>0.004341273758422803</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.008279676971066657</v>
+        <v>-0.007589703890144461</v>
       </c>
       <c r="D3" t="n">
-        <v>0.008634494641071244</v>
+        <v>0.007914953420981974</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.007026473303418934</v>
+        <v>-0.006440933861467352</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0019449149883933037</v>
+        <v>0.0017828387393604983</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.009942316847687704</v>
+        <v>-0.009113790443713743</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.006130656964262737</v>
+        <v>-0.0056197688839074444</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002318208200561167</v>
+        <v>0.0021250241838476625</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0011247297615391838</v>
+        <v>-0.0010310022814108838</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.008148199795797006</v>
+        <v>-0.007469183146147307</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005823551113406156</v>
+        <v>0.005338255187288976</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0013290344144653576</v>
+        <v>-0.0012182815465932723</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.004587874153091531</v>
+        <v>-0.004205551307000566</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.009536648045964852</v>
+        <v>-0.008741927375467667</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.007503116363458934</v>
+        <v>-0.006877856666504034</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.014575402312648311</v>
+        <v>-0.01336078545326097</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.017753448912869146</v>
+        <v>-0.01627399483679673</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009163958732372995</v>
+        <v>0.008400295504675248</v>
       </c>
       <c r="H5" t="n">
-        <v>0.014594075742645929</v>
+        <v>0.01337790276409212</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0018473496734366102</v>
+        <v>-0.001693403867316895</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0016496022807383492</v>
+        <v>-0.0015121354240101303</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0043148540607602925</v>
+        <v>0.003955282889030354</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004622771374689583</v>
+        <v>0.00423754042679883</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007036842440569152</v>
+        <v>0.006450438903855077</v>
       </c>
       <c r="H6" t="n">
-        <v>-6.8431409011116E-4</v>
+        <v>-6.27287915935193E-4</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006762789714734763</v>
+        <v>0.006199223905173551</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.012649719927097208</v>
+        <v>-0.01159557659983912</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0014684362510449245</v>
+        <v>-0.0013460665634578706</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004075358733743789</v>
+        <v>0.0037357455059318645</v>
       </c>
       <c r="G7" t="n">
-        <v>0.015120089537791398</v>
+        <v>0.013860082076308844</v>
       </c>
       <c r="H7" t="n">
-        <v>0.015903787953477383</v>
+        <v>0.014578472290687594</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.0347846434798367E-4</v>
+        <v>-1.865219256522721E-4</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.005028921695588301</v>
+        <v>-0.004609844887622616</v>
       </c>
       <c r="E8" t="n">
-        <v>7.737335894685837E-4</v>
+        <v>7.092557903462249E-4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0012149015772204008</v>
+        <v>0.0011136597791187586</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01716403828205068</v>
+        <v>-0.01573370175854652</v>
       </c>
       <c r="H8" t="n">
-        <v>0.006375979428515671</v>
+        <v>0.005844647809472692</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>9.234424995294976E-4</v>
+        <v>8.464889579019585E-4</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.005570141695166703</v>
+        <v>-0.005105963220569554</v>
       </c>
       <c r="E9" t="n">
-        <v>0.015496133375696358</v>
+        <v>0.014204788927721632</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00809738915328978</v>
+        <v>0.007422606723848951</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0022317706577182073</v>
+        <v>-0.002045789769575035</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.002619774072863318</v>
+        <v>-0.0024014595667913863</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>3.587469243295782E-4</v>
+        <v>3.2885134730217813E-4</v>
       </c>
       <c r="D10" t="n">
-        <v>5.415382989753803E-4</v>
+        <v>4.964101073940685E-4</v>
       </c>
       <c r="E10" t="n">
-        <v>0.010626783918709387</v>
+        <v>0.00974121859215027</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0018723695011600983</v>
+        <v>0.001716338709396692</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0012127457779631534</v>
+        <v>-0.0011116836297995758</v>
       </c>
       <c r="H10" t="n">
-        <v>0.008114761055937586</v>
+        <v>0.007438530967942808</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004684204684204718</v>
+        <v>0.004293854293854288</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0036388732040905647</v>
+        <v>0.0033356337704164296</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0015608493869363749</v>
+        <v>-0.0014307786046916793</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.004907752190360853</v>
+        <v>-0.00449877284116415</v>
       </c>
       <c r="G11" t="n">
-        <v>0.005967281510759759</v>
+        <v>0.005470008051529807</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0024041310273193728</v>
+        <v>-0.002203786775042821</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0033058093698825897</v>
+        <v>0.0030303252557257465</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0068676402148422355</v>
+        <v>0.00629533686360538</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.00862276328114836</v>
+        <v>-0.00790419967438595</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0015066604965265074</v>
+        <v>0.0013811054551493007</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.00705480713801912</v>
+        <v>-0.0064669065431842004</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0029238072716334107</v>
+        <v>0.002680156665663916</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0014437211233550296</v>
+        <v>-0.0013234110297420942</v>
       </c>
       <c r="D13" t="n">
-        <v>0.004645519319432412</v>
+        <v>0.004258392709479669</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001214539973121237</v>
+        <v>0.001113328308694428</v>
       </c>
       <c r="F13" t="n">
-        <v>7.614969571491104E-4</v>
+        <v>6.980388773866475E-4</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.001279182438602755</v>
+        <v>-0.0011725839020525486</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00730577160783108</v>
+        <v>0.006696957307178536</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005500733451043988</v>
+        <v>0.00504233899679038</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0028136785383161833</v>
+        <v>0.0025792053267898463</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.006575600364420259</v>
+        <v>-0.006027633667385207</v>
       </c>
       <c r="F14" t="n">
-        <v>0.010278330610811431</v>
+        <v>0.009421803059910444</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.006557941340550072</v>
+        <v>-0.006011446228837536</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.00697823013369786</v>
+        <v>-0.006396710955889673</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.012421229812534185</v>
+        <v>0.011386127328156304</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.002928347131245679</v>
+        <v>-0.0026843182036418722</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003882188060023939</v>
+        <v>0.0035586723883552634</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.006125259557753865</v>
+        <v>-0.005614821261274383</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00927681728658239</v>
+        <v>0.008503749179367331</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0029933259746924568</v>
+        <v>0.0027438821434680877</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.004875240382486767</v>
+        <v>-0.004468970350612833</v>
       </c>
       <c r="D16" t="n">
-        <v>0.009271779580704076</v>
+        <v>0.008499131282312028</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.008847182760226224</v>
+        <v>-0.0081099175302074</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.010900109298278587</v>
+        <v>-0.009991766856755402</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003030184848366757</v>
+        <v>0.002777669444336134</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.008125443121180603</v>
+        <v>-0.0074483228610822405</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0019257446793677635</v>
+        <v>0.0017652659560871975</v>
       </c>
       <c r="D17" t="n">
-        <v>0.004534133187287848</v>
+        <v>0.0041562887550138095</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0044604175038957805</v>
+        <v>0.004088716045237806</v>
       </c>
       <c r="F17" t="n">
-        <v>0.010392075609466866</v>
+        <v>0.009526069308677942</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.007419333506290066</v>
+        <v>-0.006801055714099169</v>
       </c>
       <c r="H17" t="n">
-        <v>0.008834215355954522</v>
+        <v>0.008098030742958284</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>9.722740462633633E-4</v>
+        <v>8.912512090747948E-4</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0030322135094936753</v>
+        <v>-0.0027795290503691977</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00585755455746928</v>
+        <v>0.005369425011013534</v>
       </c>
       <c r="F18" t="n">
-        <v>5.121622768682194E-4</v>
+        <v>4.694820871291999E-4</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0030272158636547725</v>
+        <v>0.002774947875016892</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0038390660026270673</v>
+        <v>-0.0035191438357414645</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.524164050043797E-4</v>
+        <v>-1.3971503792070683E-4</v>
       </c>
       <c r="D19" t="n">
-        <v>5.863913186567871E-4</v>
+        <v>5.375253754353743E-4</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.002832801745845215</v>
+        <v>-0.002596734933691447</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.006122315787142826</v>
+        <v>-0.0056121228048808675</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004874047674725268</v>
+        <v>0.004467877035164838</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0021037868162692985</v>
+        <v>-0.0019284712482468547</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>7.594429954678183E-4</v>
+        <v>6.961560791788474E-4</v>
       </c>
       <c r="D20" t="n">
-        <v>5.597219556029986E-4</v>
+        <v>5.13078459302721E-4</v>
       </c>
       <c r="E20" t="n">
-        <v>9.690390125172976E-4</v>
+        <v>8.882857614741918E-4</v>
       </c>
       <c r="F20" t="n">
-        <v>0.004698649839314867</v>
+        <v>0.004307095686038598</v>
       </c>
       <c r="G20" t="n">
-        <v>0.003654960176699279</v>
+        <v>0.0033503801619743506</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0031353516373612</v>
+        <v>-0.0028740723342477736</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-4.954787563483665E-4</v>
+        <v>-4.541888599859656E-4</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.008869002004013415</v>
+        <v>-0.008129918503679001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.010931945714554414</v>
+        <v>0.010020950238341556</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.012826884108348702</v>
+        <v>-0.011757977099319583</v>
       </c>
       <c r="G21" t="n">
-        <v>-9.34525047797341E-4</v>
+        <v>-8.566479604809052E-4</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.016197624893277085</v>
+        <v>-0.014847822818837356</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00620474661395376</v>
+        <v>0.005687684396124271</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0012725381837700445</v>
+        <v>0.0011664933351225593</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003869748682001628</v>
+        <v>0.003547269625168145</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0030345471521942557</v>
+        <v>-0.0027816682228447437</v>
       </c>
       <c r="G22" t="n">
-        <v>4.275227877711951E-4</v>
+        <v>3.918958887902807E-4</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.0018780544142863176</v>
+        <v>-0.0017215498797624462</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.01428211573139107</v>
+        <v>-0.013091939420441873</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.009685671797473011</v>
+        <v>-0.008878532481016943</v>
       </c>
       <c r="E23" t="n">
-        <v>0.012341058107648462</v>
+        <v>0.011312636598677761</v>
       </c>
       <c r="F23" t="n">
-        <v>9.395878961096227E-4</v>
+        <v>8.612889047671657E-4</v>
       </c>
       <c r="G23" t="n">
-        <v>0.013434888720929933</v>
+        <v>0.01231531466085245</v>
       </c>
       <c r="H23" t="n">
-        <v>0.009236673918579269</v>
+        <v>0.008466951092031022</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.004060243190677992</v>
+        <v>-0.003721889591454794</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0018844688943849691</v>
+        <v>-0.0017274298198528965</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.002420285028980701</v>
+        <v>-0.002218594609898969</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0032814249061388634</v>
+        <v>0.003007972830627259</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.010132676036566202</v>
+        <v>-0.00928828636685236</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001038223578269326</v>
+        <v>9.517049467469008E-4</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.1903115366381805E-4</v>
+        <v>-3.841118908585045E-4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.004335786944482611</v>
+        <v>0.003974471365775709</v>
       </c>
       <c r="E25" t="n">
-        <v>1.8228279097842748E-4</v>
+        <v>1.6709255839690573E-4</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0017778930822408834</v>
+        <v>0.001629735325387488</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.534925224931099E-4</v>
+        <v>-5.990348122853484E-4</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.0023398433724520773</v>
+        <v>-0.0021448564247477098</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.013154592674043453</v>
+        <v>0.012058376617873179</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0015391207937791584</v>
+        <v>-0.001410860727630886</v>
       </c>
       <c r="E26" t="n">
-        <v>0.006804490471079616</v>
+        <v>0.0062374495984896805</v>
       </c>
       <c r="F26" t="n">
-        <v>0.007581499332275685</v>
+        <v>0.006949707721252724</v>
       </c>
       <c r="G26" t="n">
-        <v>0.005662949503529191</v>
+        <v>0.005191037044901772</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0035712132898833016</v>
+        <v>0.003273612182393082</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.002610746317840154</v>
+        <v>-0.002393184124686823</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0048331651115785385</v>
+        <v>-0.0044304013522803165</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003563973750309146</v>
+        <v>0.003266975937783384</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002964850790937737</v>
+        <v>0.002717779891692945</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.00671470236687631</v>
+        <v>-0.006155143836303237</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.0035922427226774967</v>
+        <v>-0.0032928891624543766</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0020942691232546107</v>
+        <v>0.0019197466963167542</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.005998649056152536</v>
+        <v>-0.00549876163480649</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.00651361883245942</v>
+        <v>-0.005970817263087791</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.003947975764745926</v>
+        <v>-0.003618977784350441</v>
       </c>
       <c r="G28" t="n">
-        <v>0.005189196253111303</v>
+        <v>0.004756763232018693</v>
       </c>
       <c r="H28" t="n">
-        <v>0.004935175651288232</v>
+        <v>0.00452391101368084</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0020035266030689614</v>
+        <v>0.001836566052813196</v>
       </c>
       <c r="D29" t="n">
-        <v>0.004563330650287176</v>
+        <v>0.004183053096096595</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0012443508820320637</v>
+        <v>0.0011406549751960399</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.004900601111396619</v>
+        <v>-0.004492217685446942</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0018097471513620345</v>
+        <v>0.0016589348887485478</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.0023272849359805836</v>
+        <v>-0.0021333445246488614</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.009582818278470462</v>
+        <v>0.008784250088597928</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.1369359195445572E-4</v>
+        <v>-1.0421912595823257E-4</v>
       </c>
       <c r="E30" t="n">
-        <v>0.011251228642532946</v>
+        <v>0.01031362625565524</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0021383467035640813</v>
+        <v>0.0019601511449337805</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.006129619173097373</v>
+        <v>-0.005618817575339288</v>
       </c>
       <c r="H30" t="n">
-        <v>-7.451729419692965E-4</v>
+        <v>-6.830751968051746E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1112,7 @@
         <v>0.001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="3">
@@ -1181,7 +1181,7 @@
         <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="6">
@@ -1227,7 +1227,7 @@
         <v>0.001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>4.0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.009536648045964852</v>
+        <v>-0.008741927375467667</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>14.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.012421229812534185</v>
+        <v>0.011386127328156304</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1324,7 +1324,7 @@
         <v>22.0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01428211573139107</v>
+        <v>-0.013091939420441873</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1347,7 +1347,7 @@
         <v>25.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.013154592674043453</v>
+        <v>0.012058376617873179</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1370,7 +1370,7 @@
         <v>4.0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.017753448912869146</v>
+        <v>-0.01627399483679673</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1393,7 +1393,7 @@
         <v>20.0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.016197624893277085</v>
+        <v>-0.014847822818837356</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1447,10 +1447,10 @@
         <v>47</v>
       </c>
       <c r="E2" t="n">
-        <v>0.961481029127564</v>
+        <v>0.9614810291275637</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3573490818035542</v>
+        <v>0.35734908180355174</v>
       </c>
     </row>
     <row r="3">
@@ -1467,10 +1467,10 @@
         <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9850300455297907</v>
+        <v>0.98503004552979</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9434645981528492</v>
+        <v>0.9434645981528392</v>
       </c>
     </row>
     <row r="4">
@@ -1487,10 +1487,10 @@
         <v>47</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9812363792499775</v>
+        <v>0.9812363792499779</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8683188136970214</v>
+        <v>0.8683188136970297</v>
       </c>
     </row>
     <row r="5">
@@ -1507,10 +1507,10 @@
         <v>47</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9373014603112213</v>
+        <v>0.937301460311221</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08521915864919903</v>
+        <v>0.08521915864919721</v>
       </c>
     </row>
     <row r="6">
@@ -1530,7 +1530,7 @@
         <v>0.9844065637051311</v>
       </c>
       <c r="F6" t="n">
-        <v>0.93323748343101</v>
+        <v>0.9332374834310095</v>
       </c>
     </row>
     <row r="7">
@@ -1550,7 +1550,7 @@
         <v>0.9695683873405649</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5480421358857186</v>
+        <v>0.5480421358857183</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +1740,7 @@
         <v>29.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.27685538124338593</v>
+        <v>0.2768553812433956</v>
       </c>
       <c r="I2" t="n">
         <v>28.0</v>
@@ -1778,7 +1778,7 @@
         <v>29.0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5272111391352551</v>
+        <v>-0.5272111391352621</v>
       </c>
       <c r="I3" t="n">
         <v>28.0</v>
@@ -1816,7 +1816,7 @@
         <v>29.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.026289378552034035</v>
+        <v>0.02628937855203342</v>
       </c>
       <c r="I4" t="n">
         <v>28.0</v>

--- a/statistics/R/roiObjectLvl_Within-PLI_gamma_B/output.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_gamma_B/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.722170540104928E-4</v>
+        <v>-1.8787314982965375E-4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001140546249241925</v>
+        <v>0.0012442322719002363</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.004427004555913161</v>
+        <v>-0.00482945951554159</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008173945906865127</v>
+        <v>0.008917031898398375</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0024684254740543754</v>
+        <v>0.0026928277898774222</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004341273758422803</v>
+        <v>0.004735935009188563</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.007589703890144461</v>
+        <v>-0.008279676971066657</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007914953420981974</v>
+        <v>0.008634494641071244</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.006440933861467352</v>
+        <v>-0.007026473303418934</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0017828387393604983</v>
+        <v>0.0019449149883933037</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.009113790443713743</v>
+        <v>-0.009942316847687704</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0056197688839074444</v>
+        <v>-0.006130656964262737</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0021250241838476625</v>
+        <v>0.002318208200561167</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0010310022814108838</v>
+        <v>-0.0011247297615391838</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.007469183146147307</v>
+        <v>-0.008148199795797006</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005338255187288976</v>
+        <v>0.005823551113406156</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0012182815465932723</v>
+        <v>-0.0013290344144653576</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.004205551307000566</v>
+        <v>-0.004587874153091531</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.008741927375467667</v>
+        <v>-0.009536648045964852</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.006877856666504034</v>
+        <v>-0.007503116363458934</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.01336078545326097</v>
+        <v>-0.014575402312648311</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01627399483679673</v>
+        <v>-0.017753448912869146</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008400295504675248</v>
+        <v>0.009163958732372995</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01337790276409212</v>
+        <v>0.014594075742645929</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.001693403867316895</v>
+        <v>-0.0018473496734366102</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0015121354240101303</v>
+        <v>-0.0016496022807383492</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003955282889030354</v>
+        <v>0.0043148540607602925</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00423754042679883</v>
+        <v>0.004622771374689583</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006450438903855077</v>
+        <v>0.007036842440569152</v>
       </c>
       <c r="H6" t="n">
-        <v>-6.27287915935193E-4</v>
+        <v>-6.8431409011116E-4</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006199223905173551</v>
+        <v>0.006762789714734763</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01159557659983912</v>
+        <v>-0.012649719927097208</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0013460665634578706</v>
+        <v>-0.0014684362510449245</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0037357455059318645</v>
+        <v>0.004075358733743789</v>
       </c>
       <c r="G7" t="n">
-        <v>0.013860082076308844</v>
+        <v>0.015120089537791398</v>
       </c>
       <c r="H7" t="n">
-        <v>0.014578472290687594</v>
+        <v>0.015903787953477383</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.865219256522721E-4</v>
+        <v>-2.0347846434798367E-4</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.004609844887622616</v>
+        <v>-0.005028921695588301</v>
       </c>
       <c r="E8" t="n">
-        <v>7.092557903462249E-4</v>
+        <v>7.737335894685837E-4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0011136597791187586</v>
+        <v>0.0012149015772204008</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01573370175854652</v>
+        <v>-0.01716403828205068</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005844647809472692</v>
+        <v>0.006375979428515671</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>8.464889579019585E-4</v>
+        <v>9.234424995294976E-4</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.005105963220569554</v>
+        <v>-0.005570141695166703</v>
       </c>
       <c r="E9" t="n">
-        <v>0.014204788927721632</v>
+        <v>0.015496133375696358</v>
       </c>
       <c r="F9" t="n">
-        <v>0.007422606723848951</v>
+        <v>0.00809738915328978</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.002045789769575035</v>
+        <v>-0.0022317706577182073</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0024014595667913863</v>
+        <v>-0.002619774072863318</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>3.2885134730217813E-4</v>
+        <v>3.587469243295782E-4</v>
       </c>
       <c r="D10" t="n">
-        <v>4.964101073940685E-4</v>
+        <v>5.415382989753803E-4</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00974121859215027</v>
+        <v>0.010626783918709387</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001716338709396692</v>
+        <v>0.0018723695011600983</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0011116836297995758</v>
+        <v>-0.0012127457779631534</v>
       </c>
       <c r="H10" t="n">
-        <v>0.007438530967942808</v>
+        <v>0.008114761055937586</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004293854293854288</v>
+        <v>0.004684204684204718</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0033356337704164296</v>
+        <v>0.0036388732040905647</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0014307786046916793</v>
+        <v>-0.0015608493869363749</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.00449877284116415</v>
+        <v>-0.004907752190360853</v>
       </c>
       <c r="G11" t="n">
-        <v>0.005470008051529807</v>
+        <v>0.005967281510759759</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.002203786775042821</v>
+        <v>-0.0024041310273193728</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0030303252557257465</v>
+        <v>0.0033058093698825897</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00629533686360538</v>
+        <v>0.0068676402148422355</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.00790419967438595</v>
+        <v>-0.00862276328114836</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0013811054551493007</v>
+        <v>0.0015066604965265074</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0064669065431842004</v>
+        <v>-0.00705480713801912</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002680156665663916</v>
+        <v>0.0029238072716334107</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0013234110297420942</v>
+        <v>-0.0014437211233550296</v>
       </c>
       <c r="D13" t="n">
-        <v>0.004258392709479669</v>
+        <v>0.004645519319432412</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001113328308694428</v>
+        <v>0.001214539973121237</v>
       </c>
       <c r="F13" t="n">
-        <v>6.980388773866475E-4</v>
+        <v>7.614969571491104E-4</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0011725839020525486</v>
+        <v>-0.001279182438602755</v>
       </c>
       <c r="H13" t="n">
-        <v>0.006696957307178536</v>
+        <v>0.00730577160783108</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00504233899679038</v>
+        <v>0.005500733451043988</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0025792053267898463</v>
+        <v>0.0028136785383161833</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.006027633667385207</v>
+        <v>-0.006575600364420259</v>
       </c>
       <c r="F14" t="n">
-        <v>0.009421803059910444</v>
+        <v>0.010278330610811431</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.006011446228837536</v>
+        <v>-0.006557941340550072</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.006396710955889673</v>
+        <v>-0.00697823013369786</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.011386127328156304</v>
+        <v>0.012421229812534185</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0026843182036418722</v>
+        <v>-0.002928347131245679</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0035586723883552634</v>
+        <v>0.003882188060023939</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.005614821261274383</v>
+        <v>-0.006125259557753865</v>
       </c>
       <c r="G15" t="n">
-        <v>0.008503749179367331</v>
+        <v>0.00927681728658239</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0027438821434680877</v>
+        <v>0.0029933259746924568</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.004468970350612833</v>
+        <v>-0.004875240382486767</v>
       </c>
       <c r="D16" t="n">
-        <v>0.008499131282312028</v>
+        <v>0.009271779580704076</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0081099175302074</v>
+        <v>-0.008847182760226224</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.009991766856755402</v>
+        <v>-0.010900109298278587</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002777669444336134</v>
+        <v>0.003030184848366757</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0074483228610822405</v>
+        <v>-0.008125443121180603</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0017652659560871975</v>
+        <v>0.0019257446793677635</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0041562887550138095</v>
+        <v>0.004534133187287848</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004088716045237806</v>
+        <v>0.0044604175038957805</v>
       </c>
       <c r="F17" t="n">
-        <v>0.009526069308677942</v>
+        <v>0.010392075609466866</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.006801055714099169</v>
+        <v>-0.007419333506290066</v>
       </c>
       <c r="H17" t="n">
-        <v>0.008098030742958284</v>
+        <v>0.008834215355954522</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>8.912512090747948E-4</v>
+        <v>9.722740462633633E-4</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0027795290503691977</v>
+        <v>-0.0030322135094936753</v>
       </c>
       <c r="E18" t="n">
-        <v>0.005369425011013534</v>
+        <v>0.00585755455746928</v>
       </c>
       <c r="F18" t="n">
-        <v>4.694820871291999E-4</v>
+        <v>5.121622768682194E-4</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002774947875016892</v>
+        <v>0.0030272158636547725</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0035191438357414645</v>
+        <v>-0.0038390660026270673</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.3971503792070683E-4</v>
+        <v>-1.524164050043797E-4</v>
       </c>
       <c r="D19" t="n">
-        <v>5.375253754353743E-4</v>
+        <v>5.863913186567871E-4</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.002596734933691447</v>
+        <v>-0.002832801745845215</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0056121228048808675</v>
+        <v>-0.006122315787142826</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004467877035164838</v>
+        <v>0.004874047674725268</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0019284712482468547</v>
+        <v>-0.0021037868162692985</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.961560791788474E-4</v>
+        <v>7.594429954678183E-4</v>
       </c>
       <c r="D20" t="n">
-        <v>5.13078459302721E-4</v>
+        <v>5.597219556029986E-4</v>
       </c>
       <c r="E20" t="n">
-        <v>8.882857614741918E-4</v>
+        <v>9.690390125172976E-4</v>
       </c>
       <c r="F20" t="n">
-        <v>0.004307095686038598</v>
+        <v>0.004698649839314867</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0033503801619743506</v>
+        <v>0.003654960176699279</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0028740723342477736</v>
+        <v>-0.0031353516373612</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-4.541888599859656E-4</v>
+        <v>-4.954787563483665E-4</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.008129918503679001</v>
+        <v>-0.008869002004013415</v>
       </c>
       <c r="E21" t="n">
-        <v>0.010020950238341556</v>
+        <v>0.010931945714554414</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.011757977099319583</v>
+        <v>-0.012826884108348702</v>
       </c>
       <c r="G21" t="n">
-        <v>-8.566479604809052E-4</v>
+        <v>-9.34525047797341E-4</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.014847822818837356</v>
+        <v>-0.016197624893277085</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.005687684396124271</v>
+        <v>0.00620474661395376</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0011664933351225593</v>
+        <v>0.0012725381837700445</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003547269625168145</v>
+        <v>0.003869748682001628</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0027816682228447437</v>
+        <v>-0.0030345471521942557</v>
       </c>
       <c r="G22" t="n">
-        <v>3.918958887902807E-4</v>
+        <v>4.275227877711951E-4</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.0017215498797624462</v>
+        <v>-0.0018780544142863176</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.013091939420441873</v>
+        <v>-0.01428211573139107</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.008878532481016943</v>
+        <v>-0.009685671797473011</v>
       </c>
       <c r="E23" t="n">
-        <v>0.011312636598677761</v>
+        <v>0.012341058107648462</v>
       </c>
       <c r="F23" t="n">
-        <v>8.612889047671657E-4</v>
+        <v>9.395878961096227E-4</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01231531466085245</v>
+        <v>0.013434888720929933</v>
       </c>
       <c r="H23" t="n">
-        <v>0.008466951092031022</v>
+        <v>0.009236673918579269</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.003721889591454794</v>
+        <v>-0.004060243190677992</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0017274298198528965</v>
+        <v>-0.0018844688943849691</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.002218594609898969</v>
+        <v>-0.002420285028980701</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003007972830627259</v>
+        <v>0.0032814249061388634</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.00928828636685236</v>
+        <v>-0.010132676036566202</v>
       </c>
       <c r="H24" t="n">
-        <v>9.517049467469008E-4</v>
+        <v>0.001038223578269326</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-3.841118908585045E-4</v>
+        <v>-4.1903115366381805E-4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003974471365775709</v>
+        <v>0.004335786944482611</v>
       </c>
       <c r="E25" t="n">
-        <v>1.6709255839690573E-4</v>
+        <v>1.8228279097842748E-4</v>
       </c>
       <c r="F25" t="n">
-        <v>0.001629735325387488</v>
+        <v>0.0017778930822408834</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.990348122853484E-4</v>
+        <v>-6.534925224931099E-4</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.0021448564247477098</v>
+        <v>-0.0023398433724520773</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.012058376617873179</v>
+        <v>0.013154592674043453</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.001410860727630886</v>
+        <v>-0.0015391207937791584</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0062374495984896805</v>
+        <v>0.006804490471079616</v>
       </c>
       <c r="F26" t="n">
-        <v>0.006949707721252724</v>
+        <v>0.007581499332275685</v>
       </c>
       <c r="G26" t="n">
-        <v>0.005191037044901772</v>
+        <v>0.005662949503529191</v>
       </c>
       <c r="H26" t="n">
-        <v>0.003273612182393082</v>
+        <v>0.0035712132898833016</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.002393184124686823</v>
+        <v>-0.002610746317840154</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0044304013522803165</v>
+        <v>-0.0048331651115785385</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003266975937783384</v>
+        <v>0.003563973750309146</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002717779891692945</v>
+        <v>0.002964850790937737</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.006155143836303237</v>
+        <v>-0.00671470236687631</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.0032928891624543766</v>
+        <v>-0.0035922427226774967</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0019197466963167542</v>
+        <v>0.0020942691232546107</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.00549876163480649</v>
+        <v>-0.005998649056152536</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.005970817263087791</v>
+        <v>-0.00651361883245942</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.003618977784350441</v>
+        <v>-0.003947975764745926</v>
       </c>
       <c r="G28" t="n">
-        <v>0.004756763232018693</v>
+        <v>0.005189196253111303</v>
       </c>
       <c r="H28" t="n">
-        <v>0.00452391101368084</v>
+        <v>0.004935175651288232</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001836566052813196</v>
+        <v>0.0020035266030689614</v>
       </c>
       <c r="D29" t="n">
-        <v>0.004183053096096595</v>
+        <v>0.004563330650287176</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0011406549751960399</v>
+        <v>0.0012443508820320637</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.004492217685446942</v>
+        <v>-0.004900601111396619</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0016589348887485478</v>
+        <v>0.0018097471513620345</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.0021333445246488614</v>
+        <v>-0.0023272849359805836</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.008784250088597928</v>
+        <v>0.009582818278470462</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.0421912595823257E-4</v>
+        <v>-1.1369359195445572E-4</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01031362625565524</v>
+        <v>0.011251228642532946</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0019601511449337805</v>
+        <v>0.0021383467035640813</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.005618817575339288</v>
+        <v>-0.006129619173097373</v>
       </c>
       <c r="H30" t="n">
-        <v>-6.830751968051746E-4</v>
+        <v>-7.451729419692965E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1112,7 @@
         <v>0.001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="3">
@@ -1181,7 +1181,7 @@
         <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="6">
@@ -1227,7 +1227,7 @@
         <v>0.001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>4.0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.008741927375467667</v>
+        <v>-0.009536648045964852</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>14.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.011386127328156304</v>
+        <v>0.012421229812534185</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1324,7 +1324,7 @@
         <v>22.0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.013091939420441873</v>
+        <v>-0.01428211573139107</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1347,7 +1347,7 @@
         <v>25.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.012058376617873179</v>
+        <v>0.013154592674043453</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1370,7 +1370,7 @@
         <v>4.0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01627399483679673</v>
+        <v>-0.017753448912869146</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1393,7 +1393,7 @@
         <v>20.0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.014847822818837356</v>
+        <v>-0.016197624893277085</v>
       </c>
       <c r="F7" t="s">
         <v>50</v>
@@ -1447,10 +1447,10 @@
         <v>47</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9614810291275637</v>
+        <v>0.961481029127564</v>
       </c>
       <c r="F2" t="n">
-        <v>0.35734908180355174</v>
+        <v>0.3573490818035542</v>
       </c>
     </row>
     <row r="3">
@@ -1467,10 +1467,10 @@
         <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>0.98503004552979</v>
+        <v>0.9850300455297907</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9434645981528392</v>
+        <v>0.9434645981528492</v>
       </c>
     </row>
     <row r="4">
@@ -1487,10 +1487,10 @@
         <v>47</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9812363792499779</v>
+        <v>0.9812363792499775</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8683188136970297</v>
+        <v>0.8683188136970214</v>
       </c>
     </row>
     <row r="5">
@@ -1507,10 +1507,10 @@
         <v>47</v>
       </c>
       <c r="E5" t="n">
-        <v>0.937301460311221</v>
+        <v>0.9373014603112213</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08521915864919721</v>
+        <v>0.08521915864919903</v>
       </c>
     </row>
     <row r="6">
@@ -1530,7 +1530,7 @@
         <v>0.9844065637051311</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9332374834310095</v>
+        <v>0.93323748343101</v>
       </c>
     </row>
     <row r="7">
@@ -1550,7 +1550,7 @@
         <v>0.9695683873405649</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5480421358857183</v>
+        <v>0.5480421358857186</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +1740,7 @@
         <v>29.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2768553812433956</v>
+        <v>0.27685538124338593</v>
       </c>
       <c r="I2" t="n">
         <v>28.0</v>
@@ -1778,7 +1778,7 @@
         <v>29.0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5272111391352621</v>
+        <v>-0.5272111391352551</v>
       </c>
       <c r="I3" t="n">
         <v>28.0</v>
@@ -1816,7 +1816,7 @@
         <v>29.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02628937855203342</v>
+        <v>0.026289378552034035</v>
       </c>
       <c r="I4" t="n">
         <v>28.0</v>
